--- a/docs/potions.xlsx
+++ b/docs/potions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ZocPy\plants-rework\repo\RandoPlant\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8B944D6-8543-4CF4-BEA2-163FEA3DC7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186520C3-BC37-4BEE-9EEC-B364E26FB106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{C2DBF027-C60D-4F02-9218-885787B8ED69}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{C2DBF027-C60D-4F02-9218-885787B8ED69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,12 +140,111 @@
         </r>
       </text>
     </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{8C0C71F6-6811-4EF9-A1F7-9CAF3C7F2E68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jacob Greaves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Like a Barashi Peace Potion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{61F136D2-C21E-4128-A5E2-D2F33D4E6051}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jacob Greaves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gale force Winds Blow everything away
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{DCD2AA4C-F671-4AAF-94B7-280409455A3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jacob Greaves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Silent Murder
+Maybe the first opportunity for a "Death" effect
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{FCD034C1-1AD7-4C5F-840F-F5977991D0CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jacob Greaves:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Oil that powers a duplicator device that you can use to double whatever you put into it.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Compounds</t>
   </si>
@@ -323,17 +422,59 @@
     <t>Potion of Mormirian Warbrew</t>
   </si>
   <si>
-    <t xml:space="preserve">Salt Lily </t>
-  </si>
-  <si>
     <t>Potion of the Mother's Milk</t>
+  </si>
+  <si>
+    <t>Potion of the Brothers Tides</t>
+  </si>
+  <si>
+    <t>Potion of Champion Brew</t>
+  </si>
+  <si>
+    <t>Lorengrass Bloodgrass</t>
+  </si>
+  <si>
+    <t>Brothers Leaf</t>
+  </si>
+  <si>
+    <t>Mother Carnation</t>
+  </si>
+  <si>
+    <t>Wolf's Nose</t>
+  </si>
+  <si>
+    <t>Jarl's Bountiful Plenty</t>
+  </si>
+  <si>
+    <t>Wolfbane</t>
+  </si>
+  <si>
+    <t>Mormirian War Woad</t>
+  </si>
+  <si>
+    <t>Potion of Swiftfoot</t>
+  </si>
+  <si>
+    <t>Potion of Fullgale Stormwind</t>
+  </si>
+  <si>
+    <t>Sailor's Needle</t>
+  </si>
+  <si>
+    <t>Halfdan's Poison</t>
+  </si>
+  <si>
+    <t>Duplicator Oil</t>
+  </si>
+  <si>
+    <t>Something from Tentacular</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +542,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="21">
@@ -552,15 +706,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -575,22 +725,15 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -602,8 +745,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84133792-8FCC-479D-854E-095D285180B8}">
-  <dimension ref="A1:AS194"/>
+  <dimension ref="A1:AS184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -934,76 +1079,73 @@
     <col min="1" max="1" width="27.26953125" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" customWidth="1"/>
     <col min="24" max="24" width="29.36328125" customWidth="1"/>
-    <col min="25" max="25" width="8.7265625" style="32"/>
+    <col min="25" max="25" width="8.7265625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
+      <c r="X1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
     </row>
     <row r="2" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N2" t="s">
@@ -1018,13 +1160,13 @@
       <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="U2" t="s">
@@ -1036,235 +1178,235 @@
       <c r="W2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="Z2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="30">
         <f>SUM(B4:B1000)</f>
         <v>820</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="30">
         <f t="shared" ref="C3:W3" si="0">SUM(C4:C1000)</f>
-        <v>20</v>
-      </c>
-      <c r="D3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="37">
+        <v>420</v>
+      </c>
+      <c r="D3" s="30">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F3" s="37">
+      <c r="E3" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F3" s="30">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="30">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="30">
         <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-      <c r="J3" s="37">
+        <v>1200</v>
+      </c>
+      <c r="J3" s="30">
+        <f t="shared" si="0"/>
+        <v>1090</v>
+      </c>
+      <c r="K3" s="30">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="L3" s="30">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="M3" s="30">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="K3" s="37">
+      <c r="N3" s="30">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="L3" s="37">
+        <v>650</v>
+      </c>
+      <c r="O3" s="30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="P3" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="30">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="R3" s="30">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+      <c r="S3" s="30">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="T3" s="30">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="U3" s="30">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="M3" s="37">
+      <c r="V3" s="30">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="N3" s="37">
+        <v>700</v>
+      </c>
+      <c r="W3" s="30">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O3" s="37">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="P3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="37">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="R3" s="37">
-        <f t="shared" si="0"/>
-        <v>1150</v>
-      </c>
-      <c r="S3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T3" s="37">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="U3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="37">
-        <f t="shared" si="0"/>
-        <v>560</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
-        <v>0</v>
-      </c>
-      <c r="I4" s="28">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
         <v>50</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="22">
         <v>100</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="23">
         <v>30</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26">
-        <v>0</v>
-      </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26">
+      <c r="L4" s="21"/>
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21">
         <v>10</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26">
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21">
         <v>100</v>
       </c>
-      <c r="R4" s="26">
-        <v>100</v>
-      </c>
-      <c r="S4" s="26">
-        <v>0</v>
-      </c>
-      <c r="T4" s="26">
-        <v>0</v>
-      </c>
-      <c r="U4" s="26">
-        <v>0</v>
-      </c>
-      <c r="V4" s="26">
-        <v>0</v>
-      </c>
-      <c r="W4" s="26">
-        <v>0</v>
-      </c>
-      <c r="X4" s="35" t="s">
+      <c r="R4" s="21">
+        <v>0</v>
+      </c>
+      <c r="S4" s="21">
+        <v>0</v>
+      </c>
+      <c r="T4" s="21">
+        <v>0</v>
+      </c>
+      <c r="U4" s="21">
+        <v>0</v>
+      </c>
+      <c r="V4" s="21">
+        <v>0</v>
+      </c>
+      <c r="W4" s="21">
+        <v>0</v>
+      </c>
+      <c r="X4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="31">
+      <c r="Y4" s="25">
         <f>SUM(B4:W4)</f>
-        <v>390</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="28">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="23">
         <v>50</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="22">
         <v>250</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="23">
         <v>30</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21">
         <v>10</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26">
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21">
         <v>250</v>
       </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="31">
-        <f t="shared" ref="Y5:Y55" si="1">SUM(B5:W5)</f>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="25">
+        <f t="shared" ref="Y5:Y46" si="1">SUM(B5:W5)</f>
         <v>590</v>
       </c>
     </row>
@@ -1272,40 +1414,40 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="28">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="23">
         <v>50</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="22">
         <v>350</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="23">
         <v>30</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26">
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21">
         <v>10</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26">
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21">
         <v>400</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="31">
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="25">
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
@@ -1314,34 +1456,34 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="23">
         <v>100</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22">
         <v>100</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="31">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="25">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -1350,34 +1492,34 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="23">
         <v>250</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22">
         <v>250</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="31">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="25">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -1389,11 +1531,11 @@
       <c r="B9">
         <v>450</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="21">
         <v>400</v>
       </c>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="31">
+      <c r="X9" s="27"/>
+      <c r="Y9" s="25">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
@@ -1414,16 +1556,16 @@
       <c r="L10">
         <v>10</v>
       </c>
-      <c r="T10" s="33">
+      <c r="T10" s="26">
         <v>400</v>
       </c>
-      <c r="W10" s="33">
+      <c r="W10" s="26">
         <v>400</v>
       </c>
-      <c r="X10" s="36" t="s">
+      <c r="X10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="Y10" s="31">
+      <c r="Y10" s="25">
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
@@ -1438,10 +1580,10 @@
       <c r="R11">
         <v>400</v>
       </c>
-      <c r="X11" s="36" t="s">
+      <c r="X11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Y11" s="31">
+      <c r="Y11" s="25">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
@@ -1450,50 +1592,38 @@
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="10">
         <v>650</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="X12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y12" s="31">
+      <c r="Y12" s="25">
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="L13">
-        <v>100</v>
-      </c>
-      <c r="N13">
-        <v>100</v>
-      </c>
-      <c r="Q13">
-        <v>100</v>
-      </c>
-      <c r="X13" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y13" s="31">
-        <f t="shared" si="1"/>
-        <v>420</v>
+        <v>47</v>
+      </c>
+      <c r="V13">
+        <v>450</v>
+      </c>
+      <c r="W13">
+        <v>400</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y13" s="25">
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -1510,45 +1640,128 @@
       <c r="W14">
         <v>10</v>
       </c>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="31">
+      <c r="X14" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y14" s="25">
         <f t="shared" si="1"/>
         <v>1110</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="X15" s="34"/>
-      <c r="Y15" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
+      </c>
+      <c r="I15">
+        <v>500</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="X15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15" s="25">
+        <f t="shared" si="1"/>
+        <v>910</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="X16" s="34"/>
-      <c r="Y16" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16">
+        <v>150</v>
+      </c>
+      <c r="J16">
+        <v>150</v>
+      </c>
+      <c r="T16">
+        <v>150</v>
+      </c>
+      <c r="V16">
+        <v>250</v>
+      </c>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="25">
+        <f t="shared" si="1"/>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X17" s="34"/>
-      <c r="Y17" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17">
+        <v>150</v>
+      </c>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X18" s="34"/>
-      <c r="Y18" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="X18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y18" s="25">
+        <f t="shared" si="1"/>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X19" s="34"/>
-      <c r="Y19" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <v>150</v>
+      </c>
+      <c r="N19">
+        <v>150</v>
+      </c>
+      <c r="T19">
+        <v>150</v>
+      </c>
+      <c r="U19">
+        <v>10</v>
+      </c>
+      <c r="X19" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y19" s="25">
+        <f t="shared" si="1"/>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
@@ -1558,814 +1771,679 @@
       <c r="W20">
         <v>150</v>
       </c>
-      <c r="X20" s="35" t="s">
+      <c r="X20" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="Y20" s="31">
+      <c r="Y20" s="25">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X21" s="34"/>
-      <c r="Y21" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21">
+        <v>500</v>
+      </c>
+      <c r="X21" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y21" s="25">
+        <f t="shared" si="1"/>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X22" s="34"/>
-      <c r="Y22" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22">
+        <v>500</v>
+      </c>
+      <c r="R22">
+        <v>400</v>
+      </c>
+      <c r="S22">
+        <v>300</v>
+      </c>
+      <c r="U22">
+        <v>100</v>
+      </c>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="25">
+        <f t="shared" si="1"/>
+        <v>1300</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X23" s="34"/>
-      <c r="Y23" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23">
+        <v>400</v>
+      </c>
+      <c r="N23">
+        <v>400</v>
+      </c>
+      <c r="X23" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y23" s="25">
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X24" s="34"/>
-      <c r="Y24" s="31">
+      <c r="X24" s="27"/>
+      <c r="Y24" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X25" s="34"/>
-      <c r="Y25" s="31">
+      <c r="X25" s="27"/>
+      <c r="Y25" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X26" s="34"/>
-      <c r="Y26" s="31">
+      <c r="X26" s="27"/>
+      <c r="Y26" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X27" s="34"/>
-      <c r="Y27" s="31">
+      <c r="X27" s="27"/>
+      <c r="Y27" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X28" s="34"/>
-      <c r="Y28" s="31">
+      <c r="X28" s="27"/>
+      <c r="Y28" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X29" s="34"/>
-      <c r="Y29" s="31">
+      <c r="X29" s="27"/>
+      <c r="Y29" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X30" s="34"/>
-      <c r="Y30" s="31">
+      <c r="X30" s="27"/>
+      <c r="Y30" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X31" s="34"/>
-      <c r="Y31" s="31">
+      <c r="X31" s="27"/>
+      <c r="Y31" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X32" s="34"/>
-      <c r="Y32" s="31">
+      <c r="X32" s="27"/>
+      <c r="Y32" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X33" s="34"/>
-      <c r="Y33" s="31">
+      <c r="X33" s="27"/>
+      <c r="Y33" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X34" s="34"/>
-      <c r="Y34" s="31">
+      <c r="X34" s="27"/>
+      <c r="Y34" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X35" s="34"/>
-      <c r="Y35" s="31">
+      <c r="X35" s="27"/>
+      <c r="Y35" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X36" s="34"/>
-      <c r="Y36" s="31">
+      <c r="X36" s="27"/>
+      <c r="Y36" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X37" s="34"/>
-      <c r="Y37" s="31">
+      <c r="X37" s="27"/>
+      <c r="Y37" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X38" s="34"/>
-      <c r="Y38" s="31">
+      <c r="X38" s="27"/>
+      <c r="Y38" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X39" s="34"/>
-      <c r="Y39" s="31">
+      <c r="X39" s="27"/>
+      <c r="Y39" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X40" s="34"/>
-      <c r="Y40" s="31">
+      <c r="X40" s="27"/>
+      <c r="Y40" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X41" s="34"/>
-      <c r="Y41" s="31">
+      <c r="X41" s="27"/>
+      <c r="Y41" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X42" s="34"/>
-      <c r="Y42" s="31">
+      <c r="X42" s="27"/>
+      <c r="Y42" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X43" s="34"/>
-      <c r="Y43" s="31">
+      <c r="X43" s="27"/>
+      <c r="Y43" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X44" s="34"/>
-      <c r="Y44" s="31">
+      <c r="X44" s="27"/>
+      <c r="Y44" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X45" s="34"/>
-      <c r="Y45" s="31">
+      <c r="X45" s="27"/>
+      <c r="Y45" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X46" s="34"/>
-      <c r="Y46" s="31">
+      <c r="X46" s="27"/>
+      <c r="Y46" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X47" s="34"/>
-      <c r="Y47" s="31">
-        <f t="shared" si="1"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="25">
+        <f t="shared" ref="Y47:Y55" si="2">SUM(B47:W47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X48" s="34"/>
-      <c r="Y48" s="31">
-        <f t="shared" si="1"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X49" s="34"/>
-      <c r="Y49" s="31">
-        <f t="shared" si="1"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X50" s="34"/>
-      <c r="Y50" s="31">
-        <f t="shared" si="1"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X51" s="34"/>
-      <c r="Y51" s="31">
-        <f t="shared" si="1"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X52" s="34"/>
-      <c r="Y52" s="31">
-        <f t="shared" si="1"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X53" s="34"/>
-      <c r="Y53" s="31">
-        <f t="shared" si="1"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X54" s="34"/>
-      <c r="Y54" s="31">
-        <f t="shared" si="1"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X55" s="34"/>
-      <c r="Y55" s="31">
-        <f t="shared" si="1"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X56" s="34"/>
-      <c r="Y56" s="31"/>
+      <c r="X56" s="27"/>
     </row>
     <row r="57" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X57" s="34"/>
-      <c r="Y57" s="31"/>
+      <c r="X57" s="27"/>
     </row>
     <row r="58" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X58" s="34"/>
-      <c r="Y58" s="31"/>
+      <c r="X58" s="27"/>
     </row>
     <row r="59" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X59" s="34"/>
-      <c r="Y59" s="31"/>
+      <c r="X59" s="27"/>
     </row>
     <row r="60" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X60" s="34"/>
-      <c r="Y60" s="31"/>
+      <c r="X60" s="27"/>
     </row>
     <row r="61" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X61" s="34"/>
-      <c r="Y61" s="31"/>
+      <c r="X61" s="27"/>
     </row>
     <row r="62" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X62" s="34"/>
-      <c r="Y62" s="31"/>
+      <c r="X62" s="27"/>
     </row>
     <row r="63" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X63" s="34"/>
-      <c r="Y63" s="31"/>
+      <c r="X63" s="27"/>
     </row>
     <row r="64" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X64" s="34"/>
-      <c r="Y64" s="31"/>
-    </row>
-    <row r="65" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X65" s="34"/>
-      <c r="Y65" s="31"/>
-    </row>
-    <row r="66" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X66" s="34"/>
-      <c r="Y66" s="31"/>
-    </row>
-    <row r="67" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X67" s="34"/>
-      <c r="Y67" s="31"/>
-    </row>
-    <row r="68" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X68" s="34"/>
-      <c r="Y68" s="31"/>
-    </row>
-    <row r="69" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X69" s="34"/>
-      <c r="Y69" s="31"/>
-    </row>
-    <row r="70" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X70" s="34"/>
-      <c r="Y70" s="31"/>
-    </row>
-    <row r="71" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X71" s="34"/>
-      <c r="Y71" s="31"/>
-    </row>
-    <row r="72" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X72" s="34"/>
-      <c r="Y72" s="31"/>
-    </row>
-    <row r="73" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X73" s="34"/>
-      <c r="Y73" s="31"/>
-    </row>
-    <row r="74" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X74" s="34"/>
-      <c r="Y74" s="31"/>
-    </row>
-    <row r="75" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X75" s="34"/>
-      <c r="Y75" s="31"/>
-    </row>
-    <row r="76" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X76" s="34"/>
-      <c r="Y76" s="31"/>
-    </row>
-    <row r="77" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X77" s="34"/>
-      <c r="Y77" s="31"/>
-    </row>
-    <row r="78" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X78" s="34"/>
-      <c r="Y78" s="31"/>
-    </row>
-    <row r="79" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X79" s="34"/>
-      <c r="Y79" s="31"/>
-    </row>
-    <row r="80" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X80" s="34"/>
-      <c r="Y80" s="31"/>
-    </row>
-    <row r="81" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X81" s="34"/>
-      <c r="Y81" s="31"/>
-    </row>
-    <row r="82" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X82" s="34"/>
-      <c r="Y82" s="31"/>
-    </row>
-    <row r="83" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X83" s="34"/>
-      <c r="Y83" s="31"/>
-    </row>
-    <row r="84" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X84" s="34"/>
-      <c r="Y84" s="31"/>
-    </row>
-    <row r="85" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X85" s="34"/>
-      <c r="Y85" s="31"/>
-    </row>
-    <row r="86" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X86" s="34"/>
-      <c r="Y86" s="31"/>
-    </row>
-    <row r="87" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X87" s="34"/>
-      <c r="Y87" s="31"/>
-    </row>
-    <row r="88" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X88" s="34"/>
-      <c r="Y88" s="31"/>
-    </row>
-    <row r="89" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X89" s="34"/>
-      <c r="Y89" s="31"/>
-    </row>
-    <row r="90" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X90" s="34"/>
-      <c r="Y90" s="31"/>
-    </row>
-    <row r="91" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X91" s="34"/>
-      <c r="Y91" s="31"/>
-    </row>
-    <row r="92" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X92" s="34"/>
-      <c r="Y92" s="31"/>
-    </row>
-    <row r="93" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X93" s="34"/>
-      <c r="Y93" s="31"/>
-    </row>
-    <row r="94" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X94" s="34"/>
-      <c r="Y94" s="31"/>
-    </row>
-    <row r="95" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X95" s="34"/>
-      <c r="Y95" s="31"/>
-    </row>
-    <row r="96" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X96" s="34"/>
-      <c r="Y96" s="31"/>
-    </row>
-    <row r="97" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X97" s="34"/>
-      <c r="Y97" s="31"/>
-    </row>
-    <row r="98" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X98" s="34"/>
-      <c r="Y98" s="31"/>
-    </row>
-    <row r="99" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X99" s="34"/>
-      <c r="Y99" s="31"/>
-    </row>
-    <row r="100" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X100" s="34"/>
-      <c r="Y100" s="31"/>
-    </row>
-    <row r="101" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X101" s="34"/>
-      <c r="Y101" s="31"/>
-    </row>
-    <row r="102" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X102" s="34"/>
-      <c r="Y102" s="31"/>
-    </row>
-    <row r="103" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X103" s="34"/>
-      <c r="Y103" s="31"/>
-    </row>
-    <row r="104" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X104" s="34"/>
-      <c r="Y104" s="31"/>
-    </row>
-    <row r="105" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X105" s="34"/>
-      <c r="Y105" s="31"/>
-    </row>
-    <row r="106" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X106" s="34"/>
-      <c r="Y106" s="31"/>
-    </row>
-    <row r="107" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X107" s="34"/>
-      <c r="Y107" s="31"/>
-    </row>
-    <row r="108" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X108" s="34"/>
-      <c r="Y108" s="31"/>
-    </row>
-    <row r="109" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X109" s="34"/>
-      <c r="Y109" s="31"/>
-    </row>
-    <row r="110" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X110" s="34"/>
-      <c r="Y110" s="31"/>
-    </row>
-    <row r="111" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X111" s="34"/>
-      <c r="Y111" s="31"/>
-    </row>
-    <row r="112" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X112" s="34"/>
-      <c r="Y112" s="31"/>
-    </row>
-    <row r="113" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X113" s="34"/>
-      <c r="Y113" s="31"/>
-    </row>
-    <row r="114" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X114" s="34"/>
-      <c r="Y114" s="31"/>
-    </row>
-    <row r="115" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X115" s="34"/>
-      <c r="Y115" s="31"/>
-    </row>
-    <row r="116" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X116" s="34"/>
-      <c r="Y116" s="31"/>
-    </row>
-    <row r="117" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X117" s="34"/>
-      <c r="Y117" s="31"/>
-    </row>
-    <row r="118" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X118" s="34"/>
-      <c r="Y118" s="31"/>
-    </row>
-    <row r="119" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X119" s="34"/>
-      <c r="Y119" s="31"/>
-    </row>
-    <row r="120" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X120" s="34"/>
-      <c r="Y120" s="31"/>
-    </row>
-    <row r="121" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X121" s="34"/>
-      <c r="Y121" s="31"/>
-    </row>
-    <row r="122" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X122" s="34"/>
-      <c r="Y122" s="31"/>
-    </row>
-    <row r="123" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X123" s="34"/>
-      <c r="Y123" s="31"/>
-    </row>
-    <row r="124" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X124" s="34"/>
-      <c r="Y124" s="31"/>
-    </row>
-    <row r="125" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X125" s="34"/>
-      <c r="Y125" s="31"/>
-    </row>
-    <row r="126" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X126" s="34"/>
-      <c r="Y126" s="31"/>
-    </row>
-    <row r="127" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X127" s="34"/>
-      <c r="Y127" s="31"/>
-    </row>
-    <row r="128" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X128" s="34"/>
-      <c r="Y128" s="31"/>
-    </row>
-    <row r="129" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X129" s="34"/>
-      <c r="Y129" s="31"/>
-    </row>
-    <row r="130" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X130" s="34"/>
-      <c r="Y130" s="31"/>
-    </row>
-    <row r="131" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X131" s="34"/>
-      <c r="Y131" s="31"/>
-    </row>
-    <row r="132" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X132" s="34"/>
-      <c r="Y132" s="31"/>
-    </row>
-    <row r="133" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X133" s="34"/>
-      <c r="Y133" s="31"/>
-    </row>
-    <row r="134" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X134" s="34"/>
-      <c r="Y134" s="31"/>
-    </row>
-    <row r="135" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X135" s="34"/>
-      <c r="Y135" s="31"/>
-    </row>
-    <row r="136" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X136" s="34"/>
-      <c r="Y136" s="31"/>
-    </row>
-    <row r="137" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X137" s="34"/>
-      <c r="Y137" s="31"/>
-    </row>
-    <row r="138" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X138" s="34"/>
-      <c r="Y138" s="31"/>
-    </row>
-    <row r="139" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X139" s="34"/>
-      <c r="Y139" s="31"/>
-    </row>
-    <row r="140" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X140" s="34"/>
-      <c r="Y140" s="31"/>
-    </row>
-    <row r="141" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X141" s="34"/>
-      <c r="Y141" s="31"/>
-    </row>
-    <row r="142" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X142" s="34"/>
-      <c r="Y142" s="31"/>
-    </row>
-    <row r="143" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X143" s="34"/>
-      <c r="Y143" s="31"/>
-    </row>
-    <row r="144" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X144" s="34"/>
-      <c r="Y144" s="31"/>
-    </row>
-    <row r="145" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X145" s="34"/>
-      <c r="Y145" s="31"/>
-    </row>
-    <row r="146" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X146" s="34"/>
-      <c r="Y146" s="31"/>
-    </row>
-    <row r="147" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X147" s="34"/>
-      <c r="Y147" s="31"/>
-    </row>
-    <row r="148" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X148" s="34"/>
-      <c r="Y148" s="31"/>
-    </row>
-    <row r="149" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X149" s="34"/>
-      <c r="Y149" s="31"/>
-    </row>
-    <row r="150" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X150" s="34"/>
-      <c r="Y150" s="31"/>
-    </row>
-    <row r="151" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X151" s="34"/>
-      <c r="Y151" s="31"/>
-    </row>
-    <row r="152" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X152" s="34"/>
-      <c r="Y152" s="31"/>
-    </row>
-    <row r="153" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X153" s="34"/>
-      <c r="Y153" s="31"/>
-    </row>
-    <row r="154" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X154" s="34"/>
-      <c r="Y154" s="31"/>
-    </row>
-    <row r="155" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X155" s="34"/>
-      <c r="Y155" s="31"/>
-    </row>
-    <row r="156" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X156" s="34"/>
-      <c r="Y156" s="31"/>
-    </row>
-    <row r="157" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X157" s="34"/>
-      <c r="Y157" s="31"/>
-    </row>
-    <row r="158" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X158" s="34"/>
-      <c r="Y158" s="31"/>
-    </row>
-    <row r="159" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X159" s="34"/>
-      <c r="Y159" s="31"/>
-    </row>
-    <row r="160" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X160" s="34"/>
-      <c r="Y160" s="31"/>
-    </row>
-    <row r="161" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X161" s="34"/>
-      <c r="Y161" s="31"/>
-    </row>
-    <row r="162" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X162" s="34"/>
-      <c r="Y162" s="31"/>
-    </row>
-    <row r="163" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X163" s="34"/>
-      <c r="Y163" s="31"/>
-    </row>
-    <row r="164" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X164" s="34"/>
-      <c r="Y164" s="31"/>
-    </row>
-    <row r="165" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X165" s="34"/>
-      <c r="Y165" s="31"/>
-    </row>
-    <row r="166" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X166" s="34"/>
-      <c r="Y166" s="31"/>
-    </row>
-    <row r="167" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X167" s="34"/>
-      <c r="Y167" s="31"/>
-    </row>
-    <row r="168" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X168" s="34"/>
-      <c r="Y168" s="31"/>
-    </row>
-    <row r="169" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X169" s="34"/>
-      <c r="Y169" s="31"/>
-    </row>
-    <row r="170" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X170" s="34"/>
-      <c r="Y170" s="31"/>
-    </row>
-    <row r="171" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X171" s="34"/>
-      <c r="Y171" s="31"/>
-    </row>
-    <row r="172" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X172" s="34"/>
-      <c r="Y172" s="31"/>
-    </row>
-    <row r="173" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X173" s="34"/>
-      <c r="Y173" s="31"/>
-    </row>
-    <row r="174" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X174" s="34"/>
-      <c r="Y174" s="31"/>
-    </row>
-    <row r="175" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X175" s="34"/>
-      <c r="Y175" s="31"/>
-    </row>
-    <row r="176" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X176" s="34"/>
-      <c r="Y176" s="31"/>
-    </row>
-    <row r="177" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X177" s="34"/>
-      <c r="Y177" s="31"/>
-    </row>
-    <row r="178" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X178" s="34"/>
-      <c r="Y178" s="31"/>
-    </row>
-    <row r="179" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X179" s="34"/>
-      <c r="Y179" s="31"/>
-    </row>
-    <row r="180" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X180" s="34"/>
-      <c r="Y180" s="31"/>
-    </row>
-    <row r="181" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X181" s="34"/>
-      <c r="Y181" s="31"/>
-    </row>
-    <row r="182" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X182" s="34"/>
-      <c r="Y182" s="31"/>
-    </row>
-    <row r="183" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X183" s="34"/>
-      <c r="Y183" s="31"/>
-    </row>
-    <row r="184" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X184" s="34"/>
-      <c r="Y184" s="31"/>
-    </row>
-    <row r="185" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X185" s="5"/>
-      <c r="Y185" s="31"/>
-    </row>
-    <row r="186" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X186" s="5"/>
-      <c r="Y186" s="31"/>
-    </row>
-    <row r="187" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X187" s="5"/>
-      <c r="Y187" s="31"/>
-    </row>
-    <row r="188" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X188" s="5"/>
-      <c r="Y188" s="31"/>
-    </row>
-    <row r="189" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X189" s="5"/>
-      <c r="Y189" s="31"/>
-    </row>
-    <row r="190" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X190" s="5"/>
-      <c r="Y190" s="31"/>
-    </row>
-    <row r="191" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X191" s="5"/>
-      <c r="Y191" s="31"/>
-    </row>
-    <row r="192" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X192" s="5"/>
-      <c r="Y192" s="31"/>
-    </row>
-    <row r="193" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X193" s="5"/>
-      <c r="Y193" s="31"/>
-    </row>
-    <row r="194" spans="24:25" x14ac:dyDescent="0.35">
-      <c r="X194" s="5"/>
-      <c r="Y194" s="31"/>
+      <c r="X64" s="27"/>
+    </row>
+    <row r="65" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X65" s="27"/>
+    </row>
+    <row r="66" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X66" s="27"/>
+    </row>
+    <row r="67" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X67" s="27"/>
+    </row>
+    <row r="68" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X68" s="27"/>
+    </row>
+    <row r="69" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X69" s="27"/>
+    </row>
+    <row r="70" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X70" s="27"/>
+    </row>
+    <row r="71" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X71" s="27"/>
+    </row>
+    <row r="72" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X72" s="27"/>
+    </row>
+    <row r="73" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X73" s="27"/>
+    </row>
+    <row r="74" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X74" s="27"/>
+    </row>
+    <row r="75" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X75" s="27"/>
+    </row>
+    <row r="76" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X76" s="27"/>
+    </row>
+    <row r="77" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X77" s="27"/>
+    </row>
+    <row r="78" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X78" s="27"/>
+    </row>
+    <row r="79" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X79" s="27"/>
+    </row>
+    <row r="80" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X80" s="27"/>
+    </row>
+    <row r="81" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X81" s="27"/>
+    </row>
+    <row r="82" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X82" s="27"/>
+    </row>
+    <row r="83" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X83" s="27"/>
+    </row>
+    <row r="84" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X84" s="27"/>
+    </row>
+    <row r="85" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X85" s="27"/>
+    </row>
+    <row r="86" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X86" s="27"/>
+    </row>
+    <row r="87" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X87" s="27"/>
+    </row>
+    <row r="88" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X88" s="27"/>
+    </row>
+    <row r="89" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X89" s="27"/>
+    </row>
+    <row r="90" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X90" s="27"/>
+    </row>
+    <row r="91" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X91" s="27"/>
+    </row>
+    <row r="92" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X92" s="27"/>
+    </row>
+    <row r="93" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X93" s="27"/>
+    </row>
+    <row r="94" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X94" s="27"/>
+    </row>
+    <row r="95" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X95" s="27"/>
+    </row>
+    <row r="96" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X96" s="27"/>
+    </row>
+    <row r="97" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X97" s="27"/>
+    </row>
+    <row r="98" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X98" s="27"/>
+    </row>
+    <row r="99" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X99" s="27"/>
+    </row>
+    <row r="100" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X100" s="27"/>
+    </row>
+    <row r="101" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X101" s="27"/>
+    </row>
+    <row r="102" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X102" s="27"/>
+    </row>
+    <row r="103" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X103" s="27"/>
+    </row>
+    <row r="104" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X104" s="27"/>
+    </row>
+    <row r="105" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X105" s="27"/>
+    </row>
+    <row r="106" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X106" s="27"/>
+    </row>
+    <row r="107" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X107" s="27"/>
+    </row>
+    <row r="108" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X108" s="27"/>
+    </row>
+    <row r="109" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X109" s="27"/>
+    </row>
+    <row r="110" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X110" s="27"/>
+    </row>
+    <row r="111" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X111" s="27"/>
+    </row>
+    <row r="112" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X112" s="27"/>
+    </row>
+    <row r="113" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X113" s="27"/>
+    </row>
+    <row r="114" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X114" s="27"/>
+    </row>
+    <row r="115" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X115" s="27"/>
+    </row>
+    <row r="116" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X116" s="27"/>
+    </row>
+    <row r="117" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X117" s="27"/>
+    </row>
+    <row r="118" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X118" s="27"/>
+    </row>
+    <row r="119" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X119" s="27"/>
+    </row>
+    <row r="120" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X120" s="27"/>
+    </row>
+    <row r="121" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X121" s="27"/>
+    </row>
+    <row r="122" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X122" s="27"/>
+    </row>
+    <row r="123" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X123" s="27"/>
+    </row>
+    <row r="124" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X124" s="27"/>
+    </row>
+    <row r="125" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X125" s="27"/>
+    </row>
+    <row r="126" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X126" s="27"/>
+    </row>
+    <row r="127" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X127" s="27"/>
+    </row>
+    <row r="128" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X128" s="27"/>
+    </row>
+    <row r="129" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X129" s="27"/>
+    </row>
+    <row r="130" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X130" s="27"/>
+    </row>
+    <row r="131" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X131" s="27"/>
+    </row>
+    <row r="132" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X132" s="27"/>
+    </row>
+    <row r="133" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X133" s="27"/>
+    </row>
+    <row r="134" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X134" s="27"/>
+    </row>
+    <row r="135" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X135" s="27"/>
+    </row>
+    <row r="136" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X136" s="27"/>
+    </row>
+    <row r="137" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X137" s="27"/>
+    </row>
+    <row r="138" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X138" s="27"/>
+    </row>
+    <row r="139" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X139" s="27"/>
+    </row>
+    <row r="140" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X140" s="27"/>
+    </row>
+    <row r="141" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X141" s="27"/>
+    </row>
+    <row r="142" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X142" s="27"/>
+    </row>
+    <row r="143" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X143" s="27"/>
+    </row>
+    <row r="144" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X144" s="27"/>
+    </row>
+    <row r="145" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X145" s="27"/>
+    </row>
+    <row r="146" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X146" s="27"/>
+    </row>
+    <row r="147" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X147" s="27"/>
+    </row>
+    <row r="148" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X148" s="27"/>
+    </row>
+    <row r="149" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X149" s="27"/>
+    </row>
+    <row r="150" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X150" s="27"/>
+    </row>
+    <row r="151" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X151" s="27"/>
+    </row>
+    <row r="152" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X152" s="27"/>
+    </row>
+    <row r="153" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X153" s="27"/>
+    </row>
+    <row r="154" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X154" s="27"/>
+    </row>
+    <row r="155" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X155" s="27"/>
+    </row>
+    <row r="156" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X156" s="27"/>
+    </row>
+    <row r="157" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X157" s="27"/>
+    </row>
+    <row r="158" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X158" s="27"/>
+    </row>
+    <row r="159" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X159" s="27"/>
+    </row>
+    <row r="160" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X160" s="27"/>
+    </row>
+    <row r="161" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X161" s="27"/>
+    </row>
+    <row r="162" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X162" s="27"/>
+    </row>
+    <row r="163" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X163" s="27"/>
+    </row>
+    <row r="164" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X164" s="27"/>
+    </row>
+    <row r="165" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X165" s="27"/>
+    </row>
+    <row r="166" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X166" s="27"/>
+    </row>
+    <row r="167" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X167" s="27"/>
+    </row>
+    <row r="168" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X168" s="27"/>
+    </row>
+    <row r="169" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X169" s="27"/>
+    </row>
+    <row r="170" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X170" s="27"/>
+    </row>
+    <row r="171" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X171" s="27"/>
+    </row>
+    <row r="172" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X172" s="27"/>
+    </row>
+    <row r="173" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X173" s="27"/>
+    </row>
+    <row r="174" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X174" s="27"/>
+    </row>
+    <row r="175" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X175" s="27"/>
+    </row>
+    <row r="176" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X176" s="27"/>
+    </row>
+    <row r="177" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X177" s="27"/>
+    </row>
+    <row r="178" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X178" s="27"/>
+    </row>
+    <row r="179" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X179" s="27"/>
+    </row>
+    <row r="180" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X180" s="27"/>
+    </row>
+    <row r="181" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X181" s="27"/>
+    </row>
+    <row r="182" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X182" s="27"/>
+    </row>
+    <row r="183" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X183" s="27"/>
+    </row>
+    <row r="184" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X184" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
